--- a/pred_ohlcv/54_21/2020-01-23 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 XVG ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-394701.3448982389</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-394941.3448982389</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-392441.3448982389</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-412104.7082982389</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-411986.7082982389</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-411986.7082982389</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-411986.7082982389</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-411986.7082982389</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-485898.3126982389</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-475898.3126982389</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-537898.3126982389</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-656272.219998239</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1719803.761098239</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1719803.761098239</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1724803.761098239</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1728803.761098239</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1728689.917698239</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1730802.400998239</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1730688.193498239</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3064269.394698239</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3064150.394698239</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3568193.981398239</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3568078.959498239</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-6534882.89169824</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-6534767.04359824</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-6909239.90779824</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6909123.70969824</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-6908545.50759824</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-6908294.42239824</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-7242779.11859824</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-7272779.11859824</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 XVG ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-437347.4398702989</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-437347.4398702989</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-437347.4398702989</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-444411.4398702989</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-444298.4398702989</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-439298.4398702989</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-394701.3448982389</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-394941.3448982389</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-392441.3448982389</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-412104.7082982389</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-411986.7082982389</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-411986.7082982389</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-411986.7082982389</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-411986.7082982389</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-485898.3126982389</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-475898.3126982389</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-537898.3126982389</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-583307.9277982389</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-656272.219998239</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-656159.3530982389</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1719803.761098239</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1719803.761098239</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1724803.761098239</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1728803.761098239</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1728689.917698239</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1730802.400998239</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1730688.193498239</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3064269.394698239</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3064150.394698239</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-7272779.11859824</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
